--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H2">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I2">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J2">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N2">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O2">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P2">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q2">
-        <v>2.40257334169</v>
+        <v>8.682670432370001</v>
       </c>
       <c r="R2">
-        <v>9.610293366760001</v>
+        <v>34.73068172948</v>
       </c>
       <c r="S2">
-        <v>0.001430399256599166</v>
+        <v>0.001346065712919641</v>
       </c>
       <c r="T2">
-        <v>0.0007858377213786632</v>
+        <v>0.0006697632806180648</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H3">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I3">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J3">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>1.096305</v>
       </c>
       <c r="O3">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P3">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q3">
-        <v>0.24787821485</v>
+        <v>0.7457605626625001</v>
       </c>
       <c r="R3">
-        <v>1.4872692891</v>
+        <v>4.474563375975</v>
       </c>
       <c r="S3">
-        <v>0.0001475771033067249</v>
+        <v>0.0001156145141367118</v>
       </c>
       <c r="T3">
-        <v>0.0001216146338742664</v>
+        <v>8.628964641032774E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H4">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I4">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J4">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N4">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O4">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P4">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q4">
-        <v>0.4238609961800001</v>
+        <v>1.191267306148333</v>
       </c>
       <c r="R4">
-        <v>2.543165977080001</v>
+        <v>7.147603836890001</v>
       </c>
       <c r="S4">
-        <v>0.000252350445797747</v>
+        <v>0.0001846809789935471</v>
       </c>
       <c r="T4">
-        <v>0.000207955749137559</v>
+        <v>0.0001378378527562922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H5">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I5">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J5">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N5">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O5">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P5">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q5">
-        <v>1.793810805145</v>
+        <v>6.710469600147501</v>
       </c>
       <c r="R5">
-        <v>7.17524322058</v>
+        <v>26.84187840059001</v>
       </c>
       <c r="S5">
-        <v>0.001067965584082481</v>
+        <v>0.001040317390450875</v>
       </c>
       <c r="T5">
-        <v>0.0005867226491025705</v>
+        <v>0.0005176317780215223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H6">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I6">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J6">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N6">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O6">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P6">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q6">
-        <v>2.27479194727</v>
+        <v>31.6884475975925</v>
       </c>
       <c r="R6">
-        <v>13.64875168362</v>
+        <v>190.130685585555</v>
       </c>
       <c r="S6">
-        <v>0.001354323155855867</v>
+        <v>0.004912628336985849</v>
       </c>
       <c r="T6">
-        <v>0.001116064152611315</v>
+        <v>0.003666572188701167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H7">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I7">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J7">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N7">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O7">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P7">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q7">
-        <v>0.2565339026566666</v>
+        <v>0.5819830930466667</v>
       </c>
       <c r="R7">
-        <v>1.53920341594</v>
+        <v>3.49189855828</v>
       </c>
       <c r="S7">
-        <v>0.0001527303650986424</v>
+        <v>9.022425682869179E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001258613092191519</v>
+        <v>6.733946232889336E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J8">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N8">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O8">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P8">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q8">
-        <v>382.8540225435167</v>
+        <v>459.8845546604667</v>
       </c>
       <c r="R8">
-        <v>2297.1241352611</v>
+        <v>2759.3073279628</v>
       </c>
       <c r="S8">
-        <v>0.2279364794945382</v>
+        <v>0.07129544254287704</v>
       </c>
       <c r="T8">
-        <v>0.1878368044852003</v>
+        <v>0.05321181837444747</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J9">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>1.096305</v>
       </c>
       <c r="O9">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P9">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q9">
         <v>39.49980215358333</v>
@@ -1013,10 +1013,10 @@
         <v>355.4982193822501</v>
       </c>
       <c r="S9">
-        <v>0.02351665468682701</v>
+        <v>0.006123614821060871</v>
       </c>
       <c r="T9">
-        <v>0.02906923857702211</v>
+        <v>0.006855599769734239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J10">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N10">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O10">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P10">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q10">
-        <v>67.54294845903335</v>
+        <v>63.09642164087778</v>
       </c>
       <c r="R10">
-        <v>607.8865361313001</v>
+        <v>567.8677947679</v>
       </c>
       <c r="S10">
-        <v>0.0402124595273991</v>
+        <v>0.009781775139370757</v>
       </c>
       <c r="T10">
-        <v>0.04970713714759787</v>
+        <v>0.01095103747584252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J11">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N11">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O11">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P11">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q11">
-        <v>285.8467088245916</v>
+        <v>355.4253668458167</v>
       </c>
       <c r="R11">
-        <v>1715.08025294755</v>
+        <v>2132.5522010749</v>
       </c>
       <c r="S11">
-        <v>0.1701820763217187</v>
+        <v>0.05510123913369003</v>
       </c>
       <c r="T11">
-        <v>0.140242831984663</v>
+        <v>0.04112516907690959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>324.26945</v>
       </c>
       <c r="I12">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J12">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N12">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O12">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P12">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q12">
-        <v>362.4918467002167</v>
+        <v>1678.403864895116</v>
       </c>
       <c r="R12">
-        <v>3262.426620301951</v>
+        <v>15105.63478405605</v>
       </c>
       <c r="S12">
-        <v>0.2158136274327109</v>
+        <v>0.2602012724730874</v>
       </c>
       <c r="T12">
-        <v>0.2667699937580067</v>
+        <v>0.2913043742588006</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>324.26945</v>
       </c>
       <c r="I13">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J13">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N13">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O13">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P13">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q13">
-        <v>40.87910027412777</v>
+        <v>30.82519803675556</v>
       </c>
       <c r="R13">
-        <v>367.91190246715</v>
+        <v>277.4267823308001</v>
       </c>
       <c r="S13">
-        <v>0.02433783544831319</v>
+        <v>0.004778799620971994</v>
       </c>
       <c r="T13">
-        <v>0.0300843106520428</v>
+        <v>0.005350032380950109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H14">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I14">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J14">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N14">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O14">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P14">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q14">
-        <v>62.28012192800767</v>
+        <v>210.99938241476</v>
       </c>
       <c r="R14">
-        <v>373.680731568046</v>
+        <v>1265.99629448856</v>
       </c>
       <c r="S14">
-        <v>0.03707917613206505</v>
+        <v>0.03271102321894795</v>
       </c>
       <c r="T14">
-        <v>0.0305560302284036</v>
+        <v>0.02441408544904099</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H15">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I15">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J15">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>1.096305</v>
       </c>
       <c r="O15">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P15">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q15">
-        <v>6.425562614998333</v>
+        <v>18.12288274405</v>
       </c>
       <c r="R15">
-        <v>57.83006353498501</v>
+        <v>163.10594469645</v>
       </c>
       <c r="S15">
-        <v>0.003825531495017698</v>
+        <v>0.00280957238571245</v>
       </c>
       <c r="T15">
-        <v>0.004728788562553239</v>
+        <v>0.003145414001922001</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H16">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I16">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J16">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N16">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O16">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P16">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q16">
-        <v>10.98743337593534</v>
+        <v>28.94923489795334</v>
       </c>
       <c r="R16">
-        <v>98.88690038341802</v>
+        <v>260.54311408158</v>
       </c>
       <c r="S16">
-        <v>0.006541492931831022</v>
+        <v>0.004487970931859407</v>
       </c>
       <c r="T16">
-        <v>0.008086023340378298</v>
+        <v>0.005024439548550677</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H17">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I17">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J17">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N17">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O17">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P17">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q17">
-        <v>46.49962343360717</v>
+        <v>163.07251926383</v>
       </c>
       <c r="R17">
-        <v>278.997740601643</v>
+        <v>978.4351155829802</v>
       </c>
       <c r="S17">
-        <v>0.02768407758357411</v>
+        <v>0.02528096956002433</v>
       </c>
       <c r="T17">
-        <v>0.02281376232514607</v>
+        <v>0.01886861645818272</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H18">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I18">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J18">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N18">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O18">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P18">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q18">
-        <v>58.96773987226968</v>
+        <v>770.0675644496901</v>
       </c>
       <c r="R18">
-        <v>530.7096588504271</v>
+        <v>6930.60808004721</v>
       </c>
       <c r="S18">
-        <v>0.03510711195076215</v>
+        <v>0.1193828043124661</v>
       </c>
       <c r="T18">
-        <v>0.04339635150651718</v>
+        <v>0.1336532015272937</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H19">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I19">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J19">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N19">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O19">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P19">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q19">
-        <v>6.649937572722111</v>
+        <v>14.14289234690667</v>
       </c>
       <c r="R19">
-        <v>59.849438154499</v>
+        <v>127.28603112216</v>
       </c>
       <c r="S19">
-        <v>0.003959115667936975</v>
+        <v>0.00219255845513974</v>
       </c>
       <c r="T19">
-        <v>0.004893913672583442</v>
+        <v>0.002454645447079377</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H20">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I20">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J20">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N20">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O20">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P20">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q20">
-        <v>1.575938073071</v>
+        <v>3.878581182394</v>
       </c>
       <c r="R20">
-        <v>6.303752292284001</v>
+        <v>15.514324729576</v>
       </c>
       <c r="S20">
-        <v>0.0009382525848644582</v>
+        <v>0.000601292561437325</v>
       </c>
       <c r="T20">
-        <v>0.0005154604701910443</v>
+        <v>0.0002991857490270568</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H21">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I21">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J21">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>1.096305</v>
       </c>
       <c r="O21">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P21">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q21">
-        <v>0.162592629115</v>
+        <v>0.3331340176325</v>
       </c>
       <c r="R21">
-        <v>0.9755557746900001</v>
+        <v>1.998804105795</v>
       </c>
       <c r="S21">
-        <v>9.680136367908158E-05</v>
+        <v>5.16454335604531E-05</v>
       </c>
       <c r="T21">
-        <v>7.977160507001737E-05</v>
+        <v>3.854590605613662E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H22">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I22">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J22">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N22">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O22">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P22">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q22">
-        <v>0.2780263436620001</v>
+        <v>0.5321435372696667</v>
       </c>
       <c r="R22">
-        <v>1.668158061972</v>
+        <v>3.192861223618</v>
       </c>
       <c r="S22">
-        <v>0.0001655261333289289</v>
+        <v>8.249768034498045E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001364059847385782</v>
+        <v>6.157268159448299E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H23">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I23">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J23">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N23">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O23">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P23">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q23">
-        <v>1.1766278659055</v>
+        <v>2.9975917338895</v>
       </c>
       <c r="R23">
-        <v>4.706511463622</v>
+        <v>11.990366935558</v>
       </c>
       <c r="S23">
-        <v>0.000700518729430842</v>
+        <v>0.0004647136483814026</v>
       </c>
       <c r="T23">
-        <v>0.0003848534173793068</v>
+        <v>0.0002312280408753708</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H24">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I24">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J24">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N24">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O24">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P24">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q24">
-        <v>1.492121458193</v>
+        <v>14.1553474254985</v>
       </c>
       <c r="R24">
-        <v>8.952728749158002</v>
+        <v>84.93208455299099</v>
       </c>
       <c r="S24">
-        <v>0.00088835141367781</v>
+        <v>0.002194489353516543</v>
       </c>
       <c r="T24">
-        <v>0.0007320683866627347</v>
+        <v>0.001637871436645531</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H25">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I25">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J25">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N25">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O25">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P25">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q25">
-        <v>0.1682702197743333</v>
+        <v>0.2599740126893333</v>
       </c>
       <c r="R25">
-        <v>1.009621318646</v>
+        <v>1.559844076136</v>
       </c>
       <c r="S25">
-        <v>0.0001001815815968714</v>
+        <v>4.030351116709701E-05</v>
       </c>
       <c r="T25">
-        <v>8.255715889426373E-05</v>
+        <v>3.008078833070299E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H26">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I26">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J26">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N26">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O26">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P26">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q26">
-        <v>4.185906082208</v>
+        <v>415.3499974576426</v>
       </c>
       <c r="R26">
-        <v>25.115436493248</v>
+        <v>2492.099984745856</v>
       </c>
       <c r="S26">
-        <v>0.002492126606204895</v>
+        <v>0.06439129468218056</v>
       </c>
       <c r="T26">
-        <v>0.002053699781273016</v>
+        <v>0.04805886260490067</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H27">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I27">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J27">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>1.096305</v>
       </c>
       <c r="O27">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P27">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q27">
-        <v>0.43186815952</v>
+        <v>35.67469826461333</v>
       </c>
       <c r="R27">
-        <v>3.886813435680001</v>
+        <v>321.07228438152</v>
       </c>
       <c r="S27">
-        <v>0.0002571176012016055</v>
+        <v>0.005530612790936288</v>
       </c>
       <c r="T27">
-        <v>0.0003178263656636429</v>
+        <v>0.006191713372570263</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H28">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I28">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J28">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N28">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O28">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P28">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q28">
-        <v>0.7384758213760002</v>
+        <v>56.98625514282311</v>
       </c>
       <c r="R28">
-        <v>6.646282392384001</v>
+        <v>512.876296285408</v>
       </c>
       <c r="S28">
-        <v>0.0004396599461016512</v>
+        <v>0.008834522138427744</v>
       </c>
       <c r="T28">
-        <v>0.0005434693002125298</v>
+        <v>0.009890554796100758</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H29">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I29">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J29">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N29">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O29">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P29">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q29">
-        <v>3.125283806864</v>
+        <v>321.0064867796747</v>
       </c>
       <c r="R29">
-        <v>18.751702841184</v>
+        <v>1926.038920678048</v>
       </c>
       <c r="S29">
-        <v>0.001860673119287647</v>
+        <v>0.04976531458202178</v>
       </c>
       <c r="T29">
-        <v>0.001533334610122713</v>
+        <v>0.03714266699857031</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H30">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I30">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J30">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N30">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O30">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P30">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q30">
-        <v>3.963277741664</v>
+        <v>1515.86965457401</v>
       </c>
       <c r="R30">
-        <v>35.669499674976</v>
+        <v>13642.82689116609</v>
       </c>
       <c r="S30">
-        <v>0.002359582301610204</v>
+        <v>0.2350037564100491</v>
       </c>
       <c r="T30">
-        <v>0.00291670995645685</v>
+        <v>0.263094878663891</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H31">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I31">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J31">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,28 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N31">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O31">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P31">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q31">
-        <v>0.4469486133013333</v>
+        <v>27.84013030324622</v>
       </c>
       <c r="R31">
-        <v>4.022537519712</v>
+        <v>250.561172729216</v>
       </c>
       <c r="S31">
-        <v>0.0002660959201996944</v>
+        <v>0.004316027555843305</v>
       </c>
       <c r="T31">
-        <v>0.0003289245809689963</v>
+        <v>0.004831942958959645</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H32">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I32">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J32">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.541999</v>
+        <v>4.254652</v>
       </c>
       <c r="N32">
-        <v>7.083998</v>
+        <v>8.509304</v>
       </c>
       <c r="O32">
-        <v>0.3246962407904733</v>
+        <v>0.1750517267704125</v>
       </c>
       <c r="P32">
-        <v>0.2669234769663889</v>
+        <v>0.1301665230638609</v>
       </c>
       <c r="Q32">
-        <v>92.07821215321867</v>
+        <v>30.35953310306801</v>
       </c>
       <c r="R32">
-        <v>552.4692729193119</v>
+        <v>182.157198618408</v>
       </c>
       <c r="S32">
-        <v>0.05481980671620158</v>
+        <v>0.004706608052049952</v>
       </c>
       <c r="T32">
-        <v>0.04517564427994231</v>
+        <v>0.003512807605826631</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H33">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I33">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J33">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>1.096305</v>
       </c>
       <c r="O33">
-        <v>0.03349954947849128</v>
+        <v>0.015035313762993</v>
       </c>
       <c r="P33">
-        <v>0.04130852979004752</v>
+        <v>0.01677013890531188</v>
       </c>
       <c r="Q33">
-        <v>9.499890163213333</v>
+        <v>2.607601274915</v>
       </c>
       <c r="R33">
-        <v>85.49901146892</v>
+        <v>23.468411474235</v>
       </c>
       <c r="S33">
-        <v>0.005655867228459162</v>
+        <v>0.0004042538175862266</v>
       </c>
       <c r="T33">
-        <v>0.006991290045864238</v>
+        <v>0.0004525762086189146</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H34">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I34">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J34">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.6248780000000002</v>
+        <v>0.5837406666666667</v>
       </c>
       <c r="N34">
-        <v>1.874634</v>
+        <v>1.751222</v>
       </c>
       <c r="O34">
-        <v>0.05728277663338398</v>
+        <v>0.02401719616225058</v>
       </c>
       <c r="P34">
-        <v>0.07063579426750398</v>
+        <v>0.02678838114761684</v>
       </c>
       <c r="Q34">
-        <v>16.24440014067734</v>
+        <v>4.165345154732668</v>
       </c>
       <c r="R34">
-        <v>146.199601266096</v>
+        <v>37.48810639259401</v>
       </c>
       <c r="S34">
-        <v>0.009671287648925541</v>
+        <v>0.0006457492932541464</v>
       </c>
       <c r="T34">
-        <v>0.01195480274543914</v>
+        <v>0.0007229387927721145</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H35">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I35">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J35">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.6445295</v>
+        <v>3.288241</v>
       </c>
       <c r="N35">
-        <v>5.289059</v>
+        <v>6.576482</v>
       </c>
       <c r="O35">
-        <v>0.2424249095805815</v>
+        <v>0.1352900930763005</v>
       </c>
       <c r="P35">
-        <v>0.1992905726625518</v>
+        <v>0.1006002131234312</v>
       </c>
       <c r="Q35">
-        <v>68.74749212138266</v>
+        <v>23.46360207376901</v>
       </c>
       <c r="R35">
-        <v>412.484952728296</v>
+        <v>140.781612442614</v>
       </c>
       <c r="S35">
-        <v>0.04092959824248769</v>
+        <v>0.003637538761732049</v>
       </c>
       <c r="T35">
-        <v>0.03372906767613817</v>
+        <v>0.002714900770871735</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H36">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I36">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J36">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.353617</v>
+        <v>15.527863</v>
       </c>
       <c r="N36">
-        <v>10.060851</v>
+        <v>46.583589</v>
       </c>
       <c r="O36">
-        <v>0.3074271994291994</v>
+        <v>0.6388722817293628</v>
       </c>
       <c r="P36">
-        <v>0.3790906392351849</v>
+        <v>0.7125875173769695</v>
       </c>
       <c r="Q36">
-        <v>87.18101208008268</v>
+        <v>110.800758973567</v>
       </c>
       <c r="R36">
-        <v>784.6291087207441</v>
+        <v>997.2068307621031</v>
       </c>
       <c r="S36">
-        <v>0.05190420317458242</v>
+        <v>0.0171773308432578</v>
       </c>
       <c r="T36">
-        <v>0.06415945147493012</v>
+        <v>0.01923061930163757</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H37">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I37">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J37">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2731,28 +2731,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.3781956666666667</v>
+        <v>0.2851813333333333</v>
       </c>
       <c r="N37">
-        <v>1.134587</v>
+        <v>0.8555440000000001</v>
       </c>
       <c r="O37">
-        <v>0.0346693240878706</v>
+        <v>0.01173338849868064</v>
       </c>
       <c r="P37">
-        <v>0.04275098707832276</v>
+        <v>0.01308722638280966</v>
       </c>
       <c r="Q37">
-        <v>9.831617917103111</v>
+        <v>2.034942488765334</v>
       </c>
       <c r="R37">
-        <v>88.48456125392799</v>
+        <v>18.314482398888</v>
       </c>
       <c r="S37">
-        <v>0.005853365104725231</v>
+        <v>0.0003154750987298158</v>
       </c>
       <c r="T37">
-        <v>0.007235419704614105</v>
+        <v>0.0003531853451609367</v>
       </c>
     </row>
   </sheetData>
